--- a/rider/monthly/2017_3.xlsx
+++ b/rider/monthly/2017_3.xlsx
@@ -339,97 +339,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>218</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>203</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>258</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>242</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>181</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>315</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>175</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>260</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>185</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>413</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>205</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>239</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>243</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>230</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -559,97 +559,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>215.78</c:v>
+                  <c:v>210.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>228.65</c:v>
+                  <c:v>229.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>239.94</c:v>
+                  <c:v>239.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.89</c:v>
+                  <c:v>117.84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.35</c:v>
+                  <c:v>99.47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>226.65</c:v>
+                  <c:v>228.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>209.84</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>221</c:v>
+                  <c:v>212.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>225.67</c:v>
+                  <c:v>230.17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>241</c:v>
+                  <c:v>238.79</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>116.15</c:v>
+                  <c:v>117.05</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98.89</c:v>
+                  <c:v>97.89</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>224.33</c:v>
+                  <c:v>231.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>211.05</c:v>
+                  <c:v>212.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>220.05</c:v>
+                  <c:v>211.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>235.53</c:v>
+                  <c:v>239.89</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>236.95</c:v>
+                  <c:v>237.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>116.29</c:v>
+                  <c:v>116.9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.31999999999999</c:v>
+                  <c:v>96.63</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>226.16</c:v>
+                  <c:v>233.47</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>212.29</c:v>
+                  <c:v>212.9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>219.1</c:v>
+                  <c:v>211.9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>235.2</c:v>
+                  <c:v>238.1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>239</c:v>
+                  <c:v>240.71</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>115.05</c:v>
+                  <c:v>115.45</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>95.84999999999999</c:v>
+                  <c:v>95.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>220.05</c:v>
+                  <c:v>226.75</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>211.95</c:v>
+                  <c:v>211.64</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>220</c:v>
+                  <c:v>212.32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>235.57</c:v>
+                  <c:v>239.33</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>238.59</c:v>
+                  <c:v>241.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,10 +1314,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="D2">
-        <v>215.78</v>
+        <v>210.56</v>
       </c>
       <c r="E2">
         <v>107.87</v>
@@ -1331,10 +1331,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>228.65</v>
+        <v>229.71</v>
       </c>
       <c r="E3">
         <v>108.03</v>
@@ -1348,10 +1348,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="D4">
-        <v>239.94</v>
+        <v>239.89</v>
       </c>
       <c r="E4">
         <v>108.2</v>
@@ -1365,10 +1365,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>116.89</v>
+        <v>117.84</v>
       </c>
       <c r="E5">
         <v>108.36</v>
@@ -1382,10 +1382,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>100.35</v>
+        <v>99.47</v>
       </c>
       <c r="E6">
         <v>108.52</v>
@@ -1399,10 +1399,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="D7">
-        <v>226.65</v>
+        <v>228.94</v>
       </c>
       <c r="E7">
         <v>108.68</v>
@@ -1416,10 +1416,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="D8">
-        <v>209.84</v>
+        <v>211</v>
       </c>
       <c r="E8">
         <v>108.84</v>
@@ -1433,10 +1433,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="D9">
-        <v>221</v>
+        <v>212.05</v>
       </c>
       <c r="E9">
         <v>109</v>
@@ -1450,10 +1450,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="D10">
-        <v>225.67</v>
+        <v>230.17</v>
       </c>
       <c r="E10">
         <v>109.16</v>
@@ -1467,10 +1467,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="D11">
-        <v>241</v>
+        <v>238.79</v>
       </c>
       <c r="E11">
         <v>109.33</v>
@@ -1487,7 +1487,7 @@
         <v>102</v>
       </c>
       <c r="D12">
-        <v>116.15</v>
+        <v>117.05</v>
       </c>
       <c r="E12">
         <v>109.49</v>
@@ -1501,10 +1501,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>98.89</v>
+        <v>97.89</v>
       </c>
       <c r="E13">
         <v>109.65</v>
@@ -1518,10 +1518,10 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="D14">
-        <v>224.33</v>
+        <v>231.06</v>
       </c>
       <c r="E14">
         <v>109.81</v>
@@ -1535,10 +1535,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D15">
-        <v>211.05</v>
+        <v>212.6</v>
       </c>
       <c r="E15">
         <v>109.97</v>
@@ -1552,10 +1552,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D16">
-        <v>220.05</v>
+        <v>211.75</v>
       </c>
       <c r="E16">
         <v>110.13</v>
@@ -1569,10 +1569,10 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D17">
-        <v>235.53</v>
+        <v>239.89</v>
       </c>
       <c r="E17">
         <v>110.3</v>
@@ -1586,10 +1586,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="D18">
-        <v>236.95</v>
+        <v>237.5</v>
       </c>
       <c r="E18">
         <v>110.46</v>
@@ -1603,10 +1603,10 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D19">
-        <v>116.29</v>
+        <v>116.9</v>
       </c>
       <c r="E19">
         <v>110.62</v>
@@ -1620,10 +1620,10 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D20">
-        <v>97.31999999999999</v>
+        <v>96.63</v>
       </c>
       <c r="E20">
         <v>110.78</v>
@@ -1637,10 +1637,10 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="D21">
-        <v>226.16</v>
+        <v>233.47</v>
       </c>
       <c r="E21">
         <v>110.94</v>
@@ -1654,10 +1654,10 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D22">
-        <v>212.29</v>
+        <v>212.9</v>
       </c>
       <c r="E22">
         <v>111.1</v>
@@ -1671,10 +1671,10 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D23">
-        <v>219.1</v>
+        <v>211.9</v>
       </c>
       <c r="E23">
         <v>111.26</v>
@@ -1688,10 +1688,10 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="D24">
-        <v>235.2</v>
+        <v>238.1</v>
       </c>
       <c r="E24">
         <v>111.43</v>
@@ -1705,10 +1705,10 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="D25">
-        <v>239</v>
+        <v>240.71</v>
       </c>
       <c r="E25">
         <v>111.59</v>
@@ -1722,10 +1722,10 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D26">
-        <v>115.05</v>
+        <v>115.45</v>
       </c>
       <c r="E26">
         <v>111.75</v>
@@ -1739,10 +1739,10 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27">
-        <v>95.84999999999999</v>
+        <v>95.25</v>
       </c>
       <c r="E27">
         <v>111.91</v>
@@ -1756,10 +1756,10 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D28">
-        <v>220.05</v>
+        <v>226.75</v>
       </c>
       <c r="E28">
         <v>112.07</v>
@@ -1773,10 +1773,10 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D29">
-        <v>211.95</v>
+        <v>211.64</v>
       </c>
       <c r="E29">
         <v>112.23</v>
@@ -1790,10 +1790,10 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D30">
-        <v>220</v>
+        <v>212.32</v>
       </c>
       <c r="E30">
         <v>112.39</v>
@@ -1807,10 +1807,10 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="D31">
-        <v>235.57</v>
+        <v>239.33</v>
       </c>
       <c r="E31">
         <v>112.56</v>
@@ -1824,10 +1824,10 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="D32">
-        <v>238.59</v>
+        <v>241.59</v>
       </c>
       <c r="E32">
         <v>112.72</v>
